--- a/AAATR/Mapeos_CON_AAATR_V2.xlsx
+++ b/AAATR/Mapeos_CON_AAATR_V2.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="977">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3479,6 +3479,18 @@
   </si>
   <si>
     <t>DESP_NOM</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -4493,7 +4505,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4682,6 +4694,13 @@
     <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4748,13 +4767,7 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5233,7 +5246,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5243,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R220"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="O69" sqref="O9:O69"/>
+    <sheetView topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5281,26 +5294,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
       <c r="H3" s="78"/>
       <c r="I3" s="26" t="s">
@@ -5313,11 +5326,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
       <c r="H4" s="79"/>
       <c r="I4" s="80" t="s">
@@ -5330,11 +5343,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5346,29 +5359,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="129" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="112" t="s">
+      <c r="M7" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="114"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6068,7 +6081,7 @@
       </c>
       <c r="R23" s="38"/>
     </row>
-    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>16</v>
       </c>
@@ -6084,13 +6097,13 @@
       <c r="F24" s="92"/>
       <c r="G24" s="100"/>
       <c r="H24" s="61"/>
-      <c r="I24" s="35">
+      <c r="I24" s="37">
         <v>229</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="38" t="s">
         <v>967</v>
       </c>
       <c r="L24" s="55"/>
@@ -6126,8 +6139,17 @@
       </c>
       <c r="F25" s="92"/>
       <c r="G25" s="100"/>
-      <c r="H25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="37">
+        <v>230</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="L25" s="55"/>
       <c r="M25" s="47">
         <v>219</v>
       </c>
@@ -6145,7 +6167,7 @@
       </c>
       <c r="R25" s="38"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="91">
         <v>18</v>
       </c>
@@ -6160,8 +6182,17 @@
       </c>
       <c r="F26" s="92"/>
       <c r="G26" s="100"/>
-      <c r="H26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="35">
+        <v>231</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="K26" s="141" t="s">
+        <v>976</v>
+      </c>
+      <c r="L26" s="55"/>
       <c r="M26" s="47">
         <v>220</v>
       </c>
@@ -7115,7 +7146,7 @@
       <c r="H54" s="49"/>
       <c r="L54" s="49"/>
       <c r="M54" s="108">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N54" s="109" t="s">
         <v>118</v>
@@ -10732,8 +10763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R168"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="O69" sqref="O9:O69"/>
+    <sheetView topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="I25" sqref="I9:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10770,26 +10801,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
       <c r="H3" s="78"/>
       <c r="I3" s="26" t="s">
@@ -10802,11 +10833,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
       <c r="H4" s="79"/>
       <c r="I4" s="80" t="s">
@@ -10819,11 +10850,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10835,29 +10866,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="129" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11514,7 +11545,7 @@
       </c>
       <c r="R22" s="38"/>
     </row>
-    <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="91">
         <v>15</v>
       </c>
@@ -11530,13 +11561,13 @@
       <c r="F23" s="92"/>
       <c r="G23" s="93"/>
       <c r="H23" s="102"/>
-      <c r="I23" s="35">
+      <c r="I23" s="37">
         <v>175</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="31" t="s">
         <v>968</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="38" t="s">
         <v>969</v>
       </c>
       <c r="L23" s="55"/>
@@ -11572,8 +11603,17 @@
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="93"/>
-      <c r="H24" s="55"/>
-      <c r="L24" s="49"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="37">
+        <v>176</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="L24" s="55"/>
       <c r="M24" s="47">
         <v>167</v>
       </c>
@@ -11591,7 +11631,7 @@
       </c>
       <c r="R24" s="38"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="91">
         <v>17</v>
       </c>
@@ -11606,8 +11646,17 @@
       </c>
       <c r="F25" s="92"/>
       <c r="G25" s="93"/>
-      <c r="H25" s="55"/>
-      <c r="L25" s="49"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="35">
+        <v>177</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="K25" s="141" t="s">
+        <v>976</v>
+      </c>
+      <c r="L25" s="55"/>
       <c r="M25" s="47">
         <v>166</v>
       </c>
@@ -15326,7 +15375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O69" sqref="O9:O69"/>
     </sheetView>
   </sheetViews>
@@ -15364,26 +15413,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
       <c r="H3" s="78"/>
       <c r="I3" s="26" t="s">
@@ -15396,11 +15445,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
       <c r="H4" s="79"/>
       <c r="I4" s="80" t="s">
@@ -15413,11 +15462,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15429,29 +15478,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="129" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15524,10 +15573,10 @@
       <c r="J9" s="24" t="s">
         <v>914</v>
       </c>
-      <c r="K9" s="134" t="s">
+      <c r="K9" s="112" t="s">
         <v>953</v>
       </c>
-      <c r="L9" s="140"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="69">
         <v>390</v>
       </c>
@@ -15569,10 +15618,10 @@
       <c r="J10" s="31" t="s">
         <v>915</v>
       </c>
-      <c r="K10" s="135" t="s">
+      <c r="K10" s="113" t="s">
         <v>916</v>
       </c>
-      <c r="L10" s="140"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="70">
         <v>391</v>
       </c>
@@ -15612,10 +15661,10 @@
       <c r="J11" s="31" t="s">
         <v>917</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="113" t="s">
         <v>918</v>
       </c>
-      <c r="L11" s="140"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="70">
         <v>392</v>
       </c>
@@ -15655,10 +15704,10 @@
       <c r="J12" s="26" t="s">
         <v>919</v>
       </c>
-      <c r="K12" s="136" t="s">
+      <c r="K12" s="114" t="s">
         <v>954</v>
       </c>
-      <c r="L12" s="140"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="70">
         <v>393</v>
       </c>
@@ -15698,7 +15747,7 @@
       <c r="J13" s="42" t="s">
         <v>920</v>
       </c>
-      <c r="K13" s="137" t="s">
+      <c r="K13" s="115" t="s">
         <v>955</v>
       </c>
       <c r="L13" s="49"/>
@@ -15743,7 +15792,7 @@
       <c r="J14" s="31" t="s">
         <v>921</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="113" t="s">
         <v>922</v>
       </c>
       <c r="L14" s="49"/>
@@ -15786,7 +15835,7 @@
       <c r="J15" s="31" t="s">
         <v>923</v>
       </c>
-      <c r="K15" s="135" t="s">
+      <c r="K15" s="113" t="s">
         <v>924</v>
       </c>
       <c r="L15" s="49"/>
@@ -15829,7 +15878,7 @@
       <c r="J16" s="26" t="s">
         <v>940</v>
       </c>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="114" t="s">
         <v>956</v>
       </c>
       <c r="L16" s="49"/>
@@ -15872,7 +15921,7 @@
       <c r="J17" s="26" t="s">
         <v>925</v>
       </c>
-      <c r="K17" s="136" t="s">
+      <c r="K17" s="114" t="s">
         <v>957</v>
       </c>
       <c r="L17" s="49"/>
@@ -15915,7 +15964,7 @@
       <c r="J18" s="26" t="s">
         <v>951</v>
       </c>
-      <c r="K18" s="136" t="s">
+      <c r="K18" s="114" t="s">
         <v>958</v>
       </c>
       <c r="L18" s="49"/>
@@ -15958,7 +16007,7 @@
       <c r="J19" s="31" t="s">
         <v>926</v>
       </c>
-      <c r="K19" s="136" t="s">
+      <c r="K19" s="114" t="s">
         <v>959</v>
       </c>
       <c r="L19" s="49"/>
@@ -16001,7 +16050,7 @@
       <c r="J20" s="31" t="s">
         <v>927</v>
       </c>
-      <c r="K20" s="136" t="s">
+      <c r="K20" s="114" t="s">
         <v>960</v>
       </c>
       <c r="L20" s="49"/>
@@ -16044,7 +16093,7 @@
       <c r="J21" s="31" t="s">
         <v>928</v>
       </c>
-      <c r="K21" s="136" t="s">
+      <c r="K21" s="114" t="s">
         <v>961</v>
       </c>
       <c r="L21" s="49"/>
@@ -16087,7 +16136,7 @@
       <c r="J22" s="26" t="s">
         <v>952</v>
       </c>
-      <c r="K22" s="135" t="s">
+      <c r="K22" s="113" t="s">
         <v>962</v>
       </c>
       <c r="L22" s="49"/>
@@ -16130,7 +16179,7 @@
       <c r="J23" s="31" t="s">
         <v>929</v>
       </c>
-      <c r="K23" s="135" t="s">
+      <c r="K23" s="113" t="s">
         <v>963</v>
       </c>
       <c r="L23" s="49"/>
@@ -16173,7 +16222,7 @@
       <c r="J24" s="36" t="s">
         <v>930</v>
       </c>
-      <c r="K24" s="138" t="s">
+      <c r="K24" s="116" t="s">
         <v>931</v>
       </c>
       <c r="L24" s="49"/>
@@ -16755,7 +16804,7 @@
       <c r="G41" s="89"/>
       <c r="H41" s="49"/>
       <c r="L41" s="49"/>
-      <c r="M41" s="139">
+      <c r="M41" s="117">
         <v>398</v>
       </c>
       <c r="N41" s="34" t="s">
@@ -17129,7 +17178,7 @@
       <c r="G52" s="89"/>
       <c r="H52" s="49"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="139">
+      <c r="M52" s="117">
         <v>192</v>
       </c>
       <c r="N52" s="34" t="s">

--- a/AAATR/Mapeos_CON_AAATR_V2.xlsx
+++ b/AAATR/Mapeos_CON_AAATR_V2.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="984">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3497,6 +3497,21 @@
   </si>
   <si>
     <t>MENSUAL</t>
+  </si>
+  <si>
+    <t>ID_TIP_AMORT</t>
+  </si>
+  <si>
+    <t>NRO_MSS_GRAC_PAG_INT</t>
+  </si>
+  <si>
+    <t>NRO_MSS_GRAC_PAG_CAP</t>
+  </si>
+  <si>
+    <t>TSA_INTR_INICL</t>
+  </si>
+  <si>
+    <t>NUMERIC(8,4)</t>
   </si>
 </sst>
 </file>
@@ -4708,6 +4723,17 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4774,17 +4800,6 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -5263,7 +5278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5273,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R220"/>
   <sheetViews>
-    <sheetView topLeftCell="K82" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52:R52"/>
+    <sheetView topLeftCell="K53" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5311,28 +5326,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="140"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>122</v>
       </c>
@@ -5343,13 +5358,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="26" t="s">
         <v>976</v>
       </c>
@@ -5360,13 +5375,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="137" t="s">
         <v>978</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
         <v>977</v>
       </c>
@@ -5381,29 +5396,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="120"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="127"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7099,22 +7114,22 @@
       <c r="G52" s="98"/>
       <c r="H52" s="49"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="146">
+      <c r="M52" s="124">
         <v>160</v>
       </c>
-      <c r="N52" s="144" t="s">
+      <c r="N52" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="O52" s="144" t="s">
+      <c r="O52" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="P52" s="144" t="s">
+      <c r="P52" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="145"/>
+      <c r="Q52" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="123"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="89">
@@ -7643,24 +7658,24 @@
       <c r="G68" s="98"/>
       <c r="H68" s="49"/>
       <c r="L68" s="49"/>
-      <c r="M68" s="47">
-        <v>220</v>
-      </c>
-      <c r="N68" s="34" t="s">
+      <c r="M68" s="71">
+        <v>219</v>
+      </c>
+      <c r="N68" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O68" s="34" t="s">
-        <v>89</v>
+      <c r="O68" s="58" t="s">
+        <v>979</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="38"/>
-    </row>
-    <row r="69" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="Q68" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="65"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="89">
         <v>61</v>
       </c>
@@ -7676,23 +7691,23 @@
       <c r="F69" s="90"/>
       <c r="G69" s="98"/>
       <c r="H69" s="49"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="48">
-        <v>19</v>
-      </c>
-      <c r="N69" s="44" t="s">
+      <c r="L69" s="49"/>
+      <c r="M69" s="71">
+        <v>220</v>
+      </c>
+      <c r="N69" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O69" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="P69" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q69" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="39"/>
+      <c r="O69" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q69" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="65"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="89">
@@ -7710,25 +7725,23 @@
       <c r="F70" s="90"/>
       <c r="G70" s="98"/>
       <c r="H70" s="49"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="73">
-        <v>213</v>
-      </c>
-      <c r="N70" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="O70" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="P70" s="63" t="s">
+      <c r="L70" s="49"/>
+      <c r="M70" s="71">
+        <v>220</v>
+      </c>
+      <c r="N70" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70" s="58" t="s">
+        <v>981</v>
+      </c>
+      <c r="P70" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="R70" s="74" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q70" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="65"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="89">
@@ -7747,24 +7760,22 @@
       <c r="G71" s="98"/>
       <c r="H71" s="49"/>
       <c r="L71" s="49"/>
-      <c r="M71" s="37">
-        <v>223</v>
-      </c>
-      <c r="N71" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="O71" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="P71" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q71" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="M71" s="71">
+        <v>220</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="58" t="s">
+        <v>982</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q71" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="65"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="25">
@@ -7783,24 +7794,24 @@
       <c r="G72" s="98"/>
       <c r="H72" s="49"/>
       <c r="L72" s="49"/>
-      <c r="M72" s="37">
-        <v>219</v>
-      </c>
-      <c r="N72" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="O72" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="P72" s="57" t="s">
+      <c r="M72" s="47">
+        <v>220</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Q72" s="57" t="s">
-        <v>18</v>
+      <c r="Q72" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="R72" s="38"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="89">
         <v>65</v>
       </c>
@@ -7816,23 +7827,23 @@
       <c r="F73" s="90"/>
       <c r="G73" s="98"/>
       <c r="H73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="37">
-        <v>219</v>
-      </c>
-      <c r="N73" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="O73" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="P73" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q73" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="38"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="48">
+        <v>19</v>
+      </c>
+      <c r="N73" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="39"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="89">
@@ -7850,23 +7861,25 @@
       <c r="F74" s="90"/>
       <c r="G74" s="98"/>
       <c r="H74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="37">
-        <v>219</v>
-      </c>
-      <c r="N74" s="57" t="s">
+      <c r="L74" s="72"/>
+      <c r="M74" s="73">
+        <v>213</v>
+      </c>
+      <c r="N74" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="O74" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="P74" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="38"/>
+      <c r="O74" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q74" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="R74" s="74" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="89">
@@ -7886,21 +7899,23 @@
       <c r="H75" s="49"/>
       <c r="L75" s="49"/>
       <c r="M75" s="37">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N75" s="57" t="s">
         <v>119</v>
       </c>
       <c r="O75" s="57" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P75" s="57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q75" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R75" s="38"/>
+      <c r="R75" s="38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="89">
@@ -7926,13 +7941,13 @@
         <v>119</v>
       </c>
       <c r="O76" s="57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P76" s="57" t="s">
         <v>25</v>
       </c>
       <c r="Q76" s="57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R76" s="38"/>
     </row>
@@ -7960,10 +7975,10 @@
         <v>119</v>
       </c>
       <c r="O77" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P77" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q77" s="57" t="s">
         <v>21</v>
@@ -7994,10 +8009,10 @@
         <v>119</v>
       </c>
       <c r="O78" s="57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P78" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="57" t="s">
         <v>21</v>
@@ -8028,7 +8043,7 @@
         <v>119</v>
       </c>
       <c r="O79" s="57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P79" s="57" t="s">
         <v>25</v>
@@ -8062,7 +8077,7 @@
         <v>119</v>
       </c>
       <c r="O80" s="57" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P80" s="57" t="s">
         <v>25</v>
@@ -8090,23 +8105,23 @@
       <c r="H81" s="49"/>
       <c r="L81" s="49"/>
       <c r="M81" s="37">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="N81" s="57" t="s">
         <v>119</v>
       </c>
       <c r="O81" s="57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P81" s="57" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="Q81" s="57" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="38"/>
     </row>
-    <row r="82" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="89">
         <v>74</v>
       </c>
@@ -8122,25 +8137,23 @@
       <c r="F82" s="90"/>
       <c r="G82" s="98"/>
       <c r="H82" s="49"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="64">
-        <v>224</v>
-      </c>
-      <c r="N82" s="68" t="s">
+      <c r="L82" s="49"/>
+      <c r="M82" s="37">
+        <v>219</v>
+      </c>
+      <c r="N82" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="O82" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="P82" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q82" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R82" s="65" t="s">
-        <v>14</v>
-      </c>
+      <c r="O82" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="P82" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q82" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="38"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="89">
@@ -8158,25 +8171,23 @@
       <c r="F83" s="90"/>
       <c r="G83" s="98"/>
       <c r="H83" s="49"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="66">
-        <v>213</v>
-      </c>
-      <c r="N83" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="O83" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P83" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="R83" s="67" t="s">
-        <v>14</v>
-      </c>
+      <c r="L83" s="49"/>
+      <c r="M83" s="37">
+        <v>219</v>
+      </c>
+      <c r="N83" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="O83" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" s="38"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="25">
@@ -8194,25 +8205,23 @@
       <c r="F84" s="90"/>
       <c r="G84" s="98"/>
       <c r="H84" s="49"/>
-      <c r="L84" s="61"/>
+      <c r="L84" s="49"/>
       <c r="M84" s="37">
-        <v>225</v>
-      </c>
-      <c r="N84" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O84" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P84" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="N84" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="O84" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R84" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q84" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R84" s="38"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" s="89">
@@ -8230,25 +8239,25 @@
       <c r="F85" s="90"/>
       <c r="G85" s="98"/>
       <c r="H85" s="49"/>
-      <c r="L85" s="61"/>
+      <c r="L85" s="49"/>
       <c r="M85" s="37">
-        <v>226</v>
-      </c>
-      <c r="N85" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O85" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="P85" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q85" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N85" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="O85" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="R85" s="38"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="89">
         <v>78</v>
       </c>
@@ -8264,23 +8273,25 @@
       <c r="F86" s="90"/>
       <c r="G86" s="98"/>
       <c r="H86" s="49"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="37">
-        <v>214</v>
-      </c>
-      <c r="N86" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P86" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R86" s="38"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="64">
+        <v>224</v>
+      </c>
+      <c r="N86" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="O86" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q86" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="65" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="89">
@@ -8298,23 +8309,25 @@
       <c r="F87" s="90"/>
       <c r="G87" s="98"/>
       <c r="H87" s="49"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="37">
-        <v>215</v>
-      </c>
-      <c r="N87" s="34" t="s">
+      <c r="L87" s="75"/>
+      <c r="M87" s="66">
+        <v>213</v>
+      </c>
+      <c r="N87" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="O87" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P87" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q87" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R87" s="38"/>
+      <c r="O87" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R87" s="67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="89">
@@ -8334,21 +8347,23 @@
       <c r="H88" s="49"/>
       <c r="L88" s="61"/>
       <c r="M88" s="37">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N88" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O88" s="34" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="P88" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Q88" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="R88" s="38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="89">
@@ -8368,19 +8383,19 @@
       <c r="H89" s="49"/>
       <c r="L89" s="61"/>
       <c r="M89" s="37">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N89" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O89" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P89" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R89" s="38"/>
     </row>
@@ -8402,16 +8417,16 @@
       <c r="H90" s="49"/>
       <c r="L90" s="61"/>
       <c r="M90" s="37">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N90" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O90" s="34" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q90" s="34" t="s">
         <v>21</v>
@@ -8436,16 +8451,16 @@
       <c r="H91" s="49"/>
       <c r="L91" s="61"/>
       <c r="M91" s="37">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N91" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O91" s="34" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="P91" s="34" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="Q91" s="34" t="s">
         <v>21</v>
@@ -8470,16 +8485,16 @@
       <c r="H92" s="49"/>
       <c r="L92" s="61"/>
       <c r="M92" s="37">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N92" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O92" s="34" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q92" s="34" t="s">
         <v>21</v>
@@ -8504,16 +8519,16 @@
       <c r="H93" s="49"/>
       <c r="L93" s="61"/>
       <c r="M93" s="37">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N93" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O93" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P93" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q93" s="34" t="s">
         <v>21</v>
@@ -8538,16 +8553,16 @@
       <c r="H94" s="49"/>
       <c r="L94" s="61"/>
       <c r="M94" s="37">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="N94" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P94" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q94" s="34" t="s">
         <v>21</v>
@@ -8572,16 +8587,16 @@
       <c r="H95" s="49"/>
       <c r="L95" s="61"/>
       <c r="M95" s="37">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="N95" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O95" s="34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q95" s="34" t="s">
         <v>21</v>
@@ -8612,10 +8627,10 @@
         <v>120</v>
       </c>
       <c r="O96" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P96" s="34" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="34" t="s">
         <v>21</v>
@@ -8646,7 +8661,7 @@
         <v>120</v>
       </c>
       <c r="O97" s="34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>91</v>
@@ -8656,7 +8671,7 @@
       </c>
       <c r="R97" s="38"/>
     </row>
-    <row r="98" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="89">
         <v>90</v>
       </c>
@@ -8672,23 +8687,23 @@
       <c r="F98" s="90"/>
       <c r="G98" s="98"/>
       <c r="H98" s="49"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="35">
-        <v>220</v>
-      </c>
-      <c r="N98" s="44" t="s">
+      <c r="L98" s="61"/>
+      <c r="M98" s="37">
+        <v>30</v>
+      </c>
+      <c r="N98" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="O98" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="P98" s="44" t="s">
+      <c r="O98" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P98" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="Q98" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="R98" s="39"/>
+      <c r="Q98" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R98" s="38"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99" s="89">
@@ -8706,6 +8721,23 @@
       <c r="F99" s="90"/>
       <c r="G99" s="98"/>
       <c r="H99" s="49"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="37">
+        <v>62</v>
+      </c>
+      <c r="N99" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O99" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P99" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q99" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R99" s="38"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="89">
@@ -8723,6 +8755,23 @@
       <c r="F100" s="90"/>
       <c r="G100" s="98"/>
       <c r="H100" s="49"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="37">
+        <v>220</v>
+      </c>
+      <c r="N100" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O100" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P100" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R100" s="38"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B101" s="89">
@@ -8740,8 +8789,25 @@
       <c r="F101" s="90"/>
       <c r="G101" s="98"/>
       <c r="H101" s="49"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L101" s="61"/>
+      <c r="M101" s="37">
+        <v>220</v>
+      </c>
+      <c r="N101" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O101" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P101" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R101" s="38"/>
+    </row>
+    <row r="102" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="25">
         <v>94</v>
       </c>
@@ -8757,6 +8823,23 @@
       <c r="F102" s="90"/>
       <c r="G102" s="98"/>
       <c r="H102" s="49"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="35">
+        <v>220</v>
+      </c>
+      <c r="N102" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="O102" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P102" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q102" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R102" s="39"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="89">
@@ -10785,8 +10868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R168"/>
   <sheetViews>
-    <sheetView topLeftCell="K34" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52:R52"/>
+    <sheetView topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="O73" sqref="O9:O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10823,28 +10906,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="140"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>122</v>
       </c>
@@ -10855,13 +10938,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="26" t="s">
         <v>976</v>
       </c>
@@ -10872,13 +10955,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="137" t="s">
         <v>978</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
         <v>977</v>
       </c>
@@ -10893,29 +10976,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12602,22 +12685,22 @@
       <c r="G52" s="91"/>
       <c r="H52" s="55"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="146">
+      <c r="M52" s="124">
         <v>22</v>
       </c>
-      <c r="N52" s="144" t="s">
+      <c r="N52" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="O52" s="144" t="s">
+      <c r="O52" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="P52" s="144" t="s">
+      <c r="P52" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="145"/>
+      <c r="Q52" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="123"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="89">
@@ -13146,24 +13229,24 @@
       <c r="G68" s="91"/>
       <c r="H68" s="55"/>
       <c r="L68" s="49"/>
-      <c r="M68" s="47">
-        <v>167</v>
-      </c>
-      <c r="N68" s="34" t="s">
+      <c r="M68" s="109">
+        <v>166</v>
+      </c>
+      <c r="N68" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O68" s="34" t="s">
-        <v>89</v>
+      <c r="O68" s="58" t="s">
+        <v>979</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="38"/>
-    </row>
-    <row r="69" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="Q68" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="40"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="89">
         <v>61</v>
       </c>
@@ -13179,23 +13262,23 @@
       <c r="F69" s="90"/>
       <c r="G69" s="91"/>
       <c r="H69" s="55"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="71">
-        <v>65</v>
-      </c>
-      <c r="N69" s="34" t="s">
+      <c r="L69" s="49"/>
+      <c r="M69" s="109">
+        <v>167</v>
+      </c>
+      <c r="N69" s="58" t="s">
         <v>118</v>
       </c>
       <c r="O69" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="P69" s="58" t="s">
-        <v>91</v>
+        <v>980</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="Q69" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="R69" s="65"/>
+      <c r="R69" s="40"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="89">
@@ -13213,25 +13296,23 @@
       <c r="F70" s="90"/>
       <c r="G70" s="91"/>
       <c r="H70" s="55"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="66">
-        <v>161</v>
-      </c>
-      <c r="N70" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="O70" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="P70" s="59" t="s">
+      <c r="L70" s="49"/>
+      <c r="M70" s="109">
+        <v>167</v>
+      </c>
+      <c r="N70" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70" s="58" t="s">
+        <v>981</v>
+      </c>
+      <c r="P70" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="R70" s="67" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q70" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="40"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="89">
@@ -13250,24 +13331,22 @@
       <c r="G71" s="91"/>
       <c r="H71" s="55"/>
       <c r="L71" s="49"/>
-      <c r="M71" s="37">
-        <v>171</v>
-      </c>
-      <c r="N71" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="O71" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="P71" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q71" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="M71" s="109">
+        <v>167</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="58" t="s">
+        <v>982</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q71" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="40"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="89">
@@ -13286,24 +13365,24 @@
       <c r="G72" s="91"/>
       <c r="H72" s="55"/>
       <c r="L72" s="49"/>
-      <c r="M72" s="37">
-        <v>166</v>
-      </c>
-      <c r="N72" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="O72" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="P72" s="57" t="s">
+      <c r="M72" s="47">
+        <v>167</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Q72" s="57" t="s">
-        <v>18</v>
+      <c r="Q72" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="R72" s="38"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="89">
         <v>65</v>
       </c>
@@ -13319,23 +13398,23 @@
       <c r="F73" s="90"/>
       <c r="G73" s="91"/>
       <c r="H73" s="55"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="37">
-        <v>166</v>
-      </c>
-      <c r="N73" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="O73" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="P73" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q73" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="38"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="71">
+        <v>65</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="65"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="89">
@@ -13353,23 +13432,25 @@
       <c r="F74" s="90"/>
       <c r="G74" s="91"/>
       <c r="H74" s="55"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="37">
-        <v>166</v>
-      </c>
-      <c r="N74" s="42" t="s">
+      <c r="L74" s="72"/>
+      <c r="M74" s="66">
+        <v>161</v>
+      </c>
+      <c r="N74" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="O74" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="P74" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="38"/>
+      <c r="O74" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q74" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R74" s="67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="25">
@@ -13389,21 +13470,23 @@
       <c r="H75" s="55"/>
       <c r="L75" s="49"/>
       <c r="M75" s="37">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N75" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O75" s="57" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P75" s="57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q75" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R75" s="38"/>
+      <c r="R75" s="38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="25">
@@ -13429,13 +13512,13 @@
         <v>119</v>
       </c>
       <c r="O76" s="57" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P76" s="57" t="s">
         <v>25</v>
       </c>
       <c r="Q76" s="57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R76" s="38"/>
     </row>
@@ -13463,10 +13546,10 @@
         <v>119</v>
       </c>
       <c r="O77" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P77" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q77" s="57" t="s">
         <v>21</v>
@@ -13497,10 +13580,10 @@
         <v>119</v>
       </c>
       <c r="O78" s="57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P78" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="57" t="s">
         <v>21</v>
@@ -13525,13 +13608,13 @@
       <c r="H79" s="55"/>
       <c r="L79" s="49"/>
       <c r="M79" s="37">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N79" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O79" s="57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P79" s="57" t="s">
         <v>25</v>
@@ -13559,13 +13642,13 @@
       <c r="H80" s="55"/>
       <c r="L80" s="49"/>
       <c r="M80" s="37">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N80" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O80" s="57" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P80" s="57" t="s">
         <v>25</v>
@@ -13593,23 +13676,23 @@
       <c r="H81" s="55"/>
       <c r="L81" s="49"/>
       <c r="M81" s="37">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="N81" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O81" s="57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P81" s="57" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="Q81" s="57" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="38"/>
     </row>
-    <row r="82" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="89">
         <v>74</v>
       </c>
@@ -13625,23 +13708,23 @@
       <c r="F82" s="90"/>
       <c r="G82" s="91"/>
       <c r="H82" s="55"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="64">
-        <v>172</v>
-      </c>
-      <c r="N82" s="96" t="s">
+      <c r="L82" s="49"/>
+      <c r="M82" s="37">
+        <v>166</v>
+      </c>
+      <c r="N82" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="O82" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="P82" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q82" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="R82" s="65"/>
+      <c r="O82" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="P82" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q82" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="38"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="25">
@@ -13659,25 +13742,23 @@
       <c r="F83" s="90"/>
       <c r="G83" s="91"/>
       <c r="H83" s="55"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="66">
-        <v>161</v>
-      </c>
-      <c r="N83" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="O83" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P83" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="R83" s="67" t="s">
-        <v>14</v>
-      </c>
+      <c r="L83" s="49"/>
+      <c r="M83" s="37">
+        <v>167</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O83" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" s="38"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="25">
@@ -13695,25 +13776,23 @@
       <c r="F84" s="90"/>
       <c r="G84" s="91"/>
       <c r="H84" s="55"/>
-      <c r="L84" s="61"/>
+      <c r="L84" s="49"/>
       <c r="M84" s="37">
-        <v>173</v>
-      </c>
-      <c r="N84" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O84" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P84" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O84" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R84" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q84" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R84" s="38"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" s="89">
@@ -13731,25 +13810,25 @@
       <c r="F85" s="90"/>
       <c r="G85" s="91"/>
       <c r="H85" s="55"/>
-      <c r="L85" s="61"/>
+      <c r="L85" s="49"/>
       <c r="M85" s="37">
-        <v>174</v>
-      </c>
-      <c r="N85" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O85" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="P85" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q85" s="34" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="N85" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O85" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="R85" s="38"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="89">
         <v>78</v>
       </c>
@@ -13765,23 +13844,23 @@
       <c r="F86" s="90"/>
       <c r="G86" s="91"/>
       <c r="H86" s="55"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="37">
-        <v>162</v>
-      </c>
-      <c r="N86" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P86" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R86" s="38"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="64">
+        <v>172</v>
+      </c>
+      <c r="N86" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="O86" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q86" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="65"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="89">
@@ -13799,23 +13878,25 @@
       <c r="F87" s="90"/>
       <c r="G87" s="91"/>
       <c r="H87" s="55"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="37">
-        <v>163</v>
-      </c>
-      <c r="N87" s="34" t="s">
+      <c r="L87" s="75"/>
+      <c r="M87" s="66">
+        <v>161</v>
+      </c>
+      <c r="N87" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="O87" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P87" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q87" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R87" s="38"/>
+      <c r="O87" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R87" s="67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="89">
@@ -13835,21 +13916,23 @@
       <c r="H88" s="55"/>
       <c r="L88" s="61"/>
       <c r="M88" s="37">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="N88" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O88" s="34" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="P88" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Q88" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="R88" s="38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="89">
@@ -13869,19 +13952,19 @@
       <c r="H89" s="55"/>
       <c r="L89" s="61"/>
       <c r="M89" s="37">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N89" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O89" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P89" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R89" s="38"/>
     </row>
@@ -13903,16 +13986,16 @@
       <c r="H90" s="55"/>
       <c r="L90" s="61"/>
       <c r="M90" s="37">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N90" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O90" s="34" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q90" s="34" t="s">
         <v>21</v>
@@ -13937,16 +14020,16 @@
       <c r="H91" s="55"/>
       <c r="L91" s="61"/>
       <c r="M91" s="37">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N91" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O91" s="34" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="P91" s="34" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="Q91" s="34" t="s">
         <v>21</v>
@@ -13971,16 +14054,16 @@
       <c r="H92" s="55"/>
       <c r="L92" s="61"/>
       <c r="M92" s="37">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N92" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O92" s="34" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q92" s="34" t="s">
         <v>21</v>
@@ -14005,16 +14088,16 @@
       <c r="H93" s="55"/>
       <c r="L93" s="61"/>
       <c r="M93" s="37">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N93" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O93" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P93" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q93" s="34" t="s">
         <v>21</v>
@@ -14039,16 +14122,16 @@
       <c r="H94" s="55"/>
       <c r="L94" s="61"/>
       <c r="M94" s="37">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="N94" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P94" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q94" s="34" t="s">
         <v>21</v>
@@ -14073,16 +14156,16 @@
       <c r="H95" s="55"/>
       <c r="L95" s="61"/>
       <c r="M95" s="37">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="N95" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O95" s="34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q95" s="34" t="s">
         <v>21</v>
@@ -14113,10 +14196,10 @@
         <v>120</v>
       </c>
       <c r="O96" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P96" s="34" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="34" t="s">
         <v>21</v>
@@ -14147,7 +14230,7 @@
         <v>120</v>
       </c>
       <c r="O97" s="34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>91</v>
@@ -14157,7 +14240,7 @@
       </c>
       <c r="R97" s="38"/>
     </row>
-    <row r="98" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="89">
         <v>90</v>
       </c>
@@ -14173,23 +14256,23 @@
       <c r="F98" s="90"/>
       <c r="G98" s="91"/>
       <c r="H98" s="55"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="35">
-        <v>167</v>
-      </c>
-      <c r="N98" s="44" t="s">
+      <c r="L98" s="61"/>
+      <c r="M98" s="37">
+        <v>134</v>
+      </c>
+      <c r="N98" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="O98" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="P98" s="44" t="s">
+      <c r="O98" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P98" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="Q98" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="R98" s="39"/>
+      <c r="Q98" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R98" s="38"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99" s="25">
@@ -14207,6 +14290,23 @@
       <c r="F99" s="90"/>
       <c r="G99" s="91"/>
       <c r="H99" s="55"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="37">
+        <v>65</v>
+      </c>
+      <c r="N99" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O99" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P99" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q99" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R99" s="38"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="25">
@@ -14224,6 +14324,23 @@
       <c r="F100" s="90"/>
       <c r="G100" s="91"/>
       <c r="H100" s="55"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="37">
+        <v>167</v>
+      </c>
+      <c r="N100" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O100" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P100" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R100" s="38"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B101" s="89">
@@ -14241,8 +14358,25 @@
       <c r="F101" s="90"/>
       <c r="G101" s="91"/>
       <c r="H101" s="55"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L101" s="61"/>
+      <c r="M101" s="37">
+        <v>167</v>
+      </c>
+      <c r="N101" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O101" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P101" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R101" s="38"/>
+    </row>
+    <row r="102" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89">
         <v>94</v>
       </c>
@@ -14258,6 +14392,23 @@
       <c r="F102" s="90"/>
       <c r="G102" s="91"/>
       <c r="H102" s="55"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="35">
+        <v>167</v>
+      </c>
+      <c r="N102" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="O102" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P102" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q102" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R102" s="39"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="89">
@@ -15402,8 +15553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J5"/>
+    <sheetView tabSelected="1" topLeftCell="I59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15440,28 +15591,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="140"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>122</v>
       </c>
@@ -15472,13 +15623,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="26" t="s">
         <v>976</v>
       </c>
@@ -15489,13 +15640,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="137" t="s">
         <v>978</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="142"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
         <v>977</v>
       </c>
@@ -15510,29 +15661,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17210,22 +17361,22 @@
       <c r="G52" s="87"/>
       <c r="H52" s="49"/>
       <c r="L52" s="49"/>
-      <c r="M52" s="143">
+      <c r="M52" s="121">
         <v>192</v>
       </c>
-      <c r="N52" s="144" t="s">
+      <c r="N52" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="O52" s="144" t="s">
+      <c r="O52" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="P52" s="144" t="s">
+      <c r="P52" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="145"/>
+      <c r="Q52" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="123"/>
     </row>
     <row r="53" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="25">
@@ -17652,22 +17803,22 @@
       <c r="G65" s="87"/>
       <c r="H65" s="49"/>
       <c r="L65" s="49"/>
-      <c r="M65" s="109">
-        <v>402</v>
-      </c>
-      <c r="N65" s="34" t="s">
+      <c r="M65" s="71">
+        <v>395</v>
+      </c>
+      <c r="N65" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O65" s="34" t="s">
-        <v>88</v>
+      <c r="O65" s="58" t="s">
+        <v>979</v>
       </c>
       <c r="P65" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q65" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="40"/>
+      <c r="Q65" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="65"/>
     </row>
     <row r="66" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="25">
@@ -17686,22 +17837,22 @@
       <c r="G66" s="87"/>
       <c r="H66" s="49"/>
       <c r="L66" s="49"/>
-      <c r="M66" s="47">
+      <c r="M66" s="71">
         <v>396</v>
       </c>
-      <c r="N66" s="34" t="s">
+      <c r="N66" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O66" s="34" t="s">
-        <v>970</v>
+      <c r="O66" s="58" t="s">
+        <v>980</v>
       </c>
       <c r="P66" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="40"/>
+      <c r="Q66" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="65"/>
     </row>
     <row r="67" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B67" s="25">
@@ -17720,17 +17871,17 @@
       <c r="G67" s="87"/>
       <c r="H67" s="49"/>
       <c r="L67" s="49"/>
-      <c r="M67" s="71">
+      <c r="M67" s="47">
         <v>396</v>
       </c>
       <c r="N67" s="58" t="s">
         <v>118</v>
       </c>
       <c r="O67" s="58" t="s">
-        <v>971</v>
-      </c>
-      <c r="P67" s="58" t="s">
-        <v>25</v>
+        <v>981</v>
+      </c>
+      <c r="P67" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="Q67" s="58" t="s">
         <v>21</v>
@@ -17757,21 +17908,21 @@
       <c r="M68" s="47">
         <v>396</v>
       </c>
-      <c r="N68" s="34" t="s">
+      <c r="N68" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="O68" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="P68" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="38"/>
-    </row>
-    <row r="69" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O68" s="58" t="s">
+        <v>982</v>
+      </c>
+      <c r="P68" s="58" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q68" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="65"/>
+    </row>
+    <row r="69" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="25">
         <v>61</v>
       </c>
@@ -17787,23 +17938,23 @@
       <c r="F69" s="81"/>
       <c r="G69" s="87"/>
       <c r="H69" s="49"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="71">
-        <v>396</v>
-      </c>
-      <c r="N69" s="58" t="s">
+      <c r="L69" s="49"/>
+      <c r="M69" s="109">
+        <v>402</v>
+      </c>
+      <c r="N69" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="O69" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="P69" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q69" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="65"/>
+      <c r="O69" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="40"/>
     </row>
     <row r="70" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B70" s="25">
@@ -17821,25 +17972,23 @@
       <c r="F70" s="81"/>
       <c r="G70" s="87"/>
       <c r="H70" s="49"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="66">
-        <v>390</v>
-      </c>
-      <c r="N70" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="O70" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="P70" s="59" t="s">
+      <c r="L70" s="49"/>
+      <c r="M70" s="47">
+        <v>396</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>970</v>
+      </c>
+      <c r="P70" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="R70" s="67" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q70" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="40"/>
     </row>
     <row r="71" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B71" s="25">
@@ -17857,25 +18006,23 @@
       <c r="F71" s="81"/>
       <c r="G71" s="87"/>
       <c r="H71" s="49"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="37">
-        <v>401</v>
-      </c>
-      <c r="N71" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="O71" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="P71" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q71" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="L71" s="49"/>
+      <c r="M71" s="71">
+        <v>396</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="58" t="s">
+        <v>971</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="65"/>
     </row>
     <row r="72" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
@@ -17893,25 +18040,25 @@
       <c r="F72" s="81"/>
       <c r="G72" s="87"/>
       <c r="H72" s="49"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="37">
-        <v>395</v>
-      </c>
-      <c r="N72" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="O72" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="P72" s="57" t="s">
+      <c r="L72" s="49"/>
+      <c r="M72" s="47">
+        <v>396</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Q72" s="57" t="s">
-        <v>18</v>
+      <c r="Q72" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="R72" s="38"/>
     </row>
-    <row r="73" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="25">
         <v>65</v>
       </c>
@@ -17927,23 +18074,23 @@
       <c r="F73" s="81"/>
       <c r="G73" s="87"/>
       <c r="H73" s="49"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="37">
-        <v>395</v>
-      </c>
-      <c r="N73" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="O73" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="P73" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q73" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="38"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="71">
+        <v>396</v>
+      </c>
+      <c r="N73" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="65"/>
     </row>
     <row r="74" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
@@ -17962,22 +18109,24 @@
       <c r="G74" s="87"/>
       <c r="H74" s="49"/>
       <c r="L74" s="61"/>
-      <c r="M74" s="37">
-        <v>395</v>
-      </c>
-      <c r="N74" s="42" t="s">
+      <c r="M74" s="66">
+        <v>390</v>
+      </c>
+      <c r="N74" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="O74" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="P74" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="38"/>
+      <c r="O74" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q74" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R74" s="67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
@@ -17997,21 +18146,23 @@
       <c r="H75" s="49"/>
       <c r="L75" s="61"/>
       <c r="M75" s="37">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N75" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O75" s="57" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P75" s="57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q75" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R75" s="38"/>
+      <c r="R75" s="38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B76" s="25">
@@ -18036,14 +18187,14 @@
       <c r="N76" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="O76" s="57" t="s">
-        <v>97</v>
+      <c r="O76" s="42" t="s">
+        <v>93</v>
       </c>
       <c r="P76" s="57" t="s">
         <v>25</v>
       </c>
       <c r="Q76" s="57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R76" s="38"/>
     </row>
@@ -18071,10 +18222,10 @@
         <v>119</v>
       </c>
       <c r="O77" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P77" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q77" s="57" t="s">
         <v>21</v>
@@ -18105,10 +18256,10 @@
         <v>119</v>
       </c>
       <c r="O78" s="57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P78" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="57" t="s">
         <v>21</v>
@@ -18132,14 +18283,14 @@
       <c r="G79" s="87"/>
       <c r="H79" s="49"/>
       <c r="L79" s="61"/>
-      <c r="M79" s="89">
-        <v>403</v>
+      <c r="M79" s="37">
+        <v>395</v>
       </c>
       <c r="N79" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="O79" s="42" t="s">
-        <v>100</v>
+      <c r="O79" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="P79" s="57" t="s">
         <v>25</v>
@@ -18167,13 +18318,13 @@
       <c r="H80" s="49"/>
       <c r="L80" s="61"/>
       <c r="M80" s="37">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N80" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O80" s="57" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P80" s="57" t="s">
         <v>25</v>
@@ -18201,23 +18352,23 @@
       <c r="H81" s="49"/>
       <c r="L81" s="61"/>
       <c r="M81" s="37">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N81" s="42" t="s">
         <v>119</v>
       </c>
       <c r="O81" s="57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P81" s="57" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="Q81" s="57" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="38"/>
     </row>
-    <row r="82" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B82" s="25">
         <v>74</v>
       </c>
@@ -18233,23 +18384,23 @@
       <c r="F82" s="81"/>
       <c r="G82" s="87"/>
       <c r="H82" s="49"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="35">
-        <v>402</v>
-      </c>
-      <c r="N82" s="97" t="s">
+      <c r="L82" s="61"/>
+      <c r="M82" s="37">
+        <v>395</v>
+      </c>
+      <c r="N82" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="O82" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="P82" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q82" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="R82" s="39"/>
+      <c r="O82" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="P82" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q82" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="38"/>
     </row>
     <row r="83" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B83" s="25">
@@ -18267,25 +18418,23 @@
       <c r="F83" s="81"/>
       <c r="G83" s="87"/>
       <c r="H83" s="49"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="66">
-        <v>390</v>
-      </c>
-      <c r="N83" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="O83" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P83" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="R83" s="67" t="s">
-        <v>14</v>
-      </c>
+      <c r="L83" s="61"/>
+      <c r="M83" s="89">
+        <v>403</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O83" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" s="38"/>
     </row>
     <row r="84" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B84" s="25">
@@ -18303,25 +18452,23 @@
       <c r="F84" s="81"/>
       <c r="G84" s="87"/>
       <c r="H84" s="49"/>
-      <c r="L84" s="49"/>
+      <c r="L84" s="61"/>
       <c r="M84" s="37">
-        <v>404</v>
-      </c>
-      <c r="N84" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O84" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P84" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O84" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="Q84" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R84" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q84" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R84" s="38"/>
     </row>
     <row r="85" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B85" s="25">
@@ -18339,25 +18486,25 @@
       <c r="F85" s="81"/>
       <c r="G85" s="87"/>
       <c r="H85" s="49"/>
-      <c r="L85" s="49"/>
+      <c r="L85" s="61"/>
       <c r="M85" s="37">
-        <v>405</v>
-      </c>
-      <c r="N85" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O85" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="P85" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q85" s="34" t="s">
-        <v>18</v>
+        <v>396</v>
+      </c>
+      <c r="N85" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O85" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="R85" s="38"/>
     </row>
-    <row r="86" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="25">
         <v>78</v>
       </c>
@@ -18373,23 +18520,23 @@
       <c r="F86" s="81"/>
       <c r="G86" s="87"/>
       <c r="H86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="47">
-        <v>391</v>
-      </c>
-      <c r="N86" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P86" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R86" s="38"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="35">
+        <v>402</v>
+      </c>
+      <c r="N86" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="O86" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q86" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="39"/>
     </row>
     <row r="87" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B87" s="25">
@@ -18407,23 +18554,25 @@
       <c r="F87" s="81"/>
       <c r="G87" s="87"/>
       <c r="H87" s="49"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="47">
-        <v>392</v>
-      </c>
-      <c r="N87" s="34" t="s">
+      <c r="L87" s="72"/>
+      <c r="M87" s="66">
+        <v>390</v>
+      </c>
+      <c r="N87" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="O87" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P87" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q87" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R87" s="38"/>
+      <c r="O87" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R87" s="67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B88" s="25">
@@ -18443,21 +18592,23 @@
       <c r="H88" s="49"/>
       <c r="L88" s="49"/>
       <c r="M88" s="37">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N88" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O88" s="34" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="P88" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Q88" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="R88" s="38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="25">
@@ -18477,19 +18628,19 @@
       <c r="H89" s="49"/>
       <c r="L89" s="49"/>
       <c r="M89" s="37">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N89" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O89" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P89" s="34" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R89" s="38"/>
     </row>
@@ -18510,17 +18661,17 @@
       <c r="G90" s="87"/>
       <c r="H90" s="49"/>
       <c r="L90" s="49"/>
-      <c r="M90" s="37">
-        <v>395</v>
+      <c r="M90" s="47">
+        <v>391</v>
       </c>
       <c r="N90" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O90" s="34" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q90" s="34" t="s">
         <v>21</v>
@@ -18544,17 +18695,17 @@
       <c r="G91" s="87"/>
       <c r="H91" s="49"/>
       <c r="L91" s="49"/>
-      <c r="M91" s="37">
-        <v>396</v>
+      <c r="M91" s="47">
+        <v>392</v>
       </c>
       <c r="N91" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O91" s="34" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="P91" s="34" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="Q91" s="34" t="s">
         <v>21</v>
@@ -18579,16 +18730,16 @@
       <c r="H92" s="49"/>
       <c r="L92" s="49"/>
       <c r="M92" s="37">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N92" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O92" s="34" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q92" s="34" t="s">
         <v>21</v>
@@ -18613,16 +18764,16 @@
       <c r="H93" s="49"/>
       <c r="L93" s="49"/>
       <c r="M93" s="37">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N93" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O93" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P93" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q93" s="34" t="s">
         <v>21</v>
@@ -18646,17 +18797,17 @@
       <c r="G94" s="87"/>
       <c r="H94" s="49"/>
       <c r="L94" s="49"/>
-      <c r="M94" s="89">
-        <v>253</v>
+      <c r="M94" s="37">
+        <v>395</v>
       </c>
       <c r="N94" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P94" s="34" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q94" s="34" t="s">
         <v>21</v>
@@ -18680,17 +18831,17 @@
       <c r="G95" s="87"/>
       <c r="H95" s="49"/>
       <c r="L95" s="49"/>
-      <c r="M95" s="89">
-        <v>241</v>
+      <c r="M95" s="37">
+        <v>396</v>
       </c>
       <c r="N95" s="34" t="s">
         <v>120</v>
       </c>
       <c r="O95" s="34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q95" s="34" t="s">
         <v>21</v>
@@ -18721,10 +18872,10 @@
         <v>120</v>
       </c>
       <c r="O96" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P96" s="34" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="34" t="s">
         <v>21</v>
@@ -18755,7 +18906,7 @@
         <v>120</v>
       </c>
       <c r="O97" s="34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>91</v>
@@ -18765,7 +18916,7 @@
       </c>
       <c r="R97" s="38"/>
     </row>
-    <row r="98" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B98" s="25">
         <v>90</v>
       </c>
@@ -18781,23 +18932,23 @@
       <c r="F98" s="81"/>
       <c r="G98" s="87"/>
       <c r="H98" s="49"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="35">
-        <v>396</v>
-      </c>
-      <c r="N98" s="44" t="s">
+      <c r="L98" s="49"/>
+      <c r="M98" s="89">
+        <v>253</v>
+      </c>
+      <c r="N98" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="O98" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="P98" s="44" t="s">
+      <c r="O98" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P98" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="Q98" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="R98" s="39"/>
+      <c r="Q98" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R98" s="38"/>
     </row>
     <row r="99" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B99" s="25">
@@ -18815,6 +18966,23 @@
       <c r="F99" s="81"/>
       <c r="G99" s="87"/>
       <c r="H99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="89">
+        <v>241</v>
+      </c>
+      <c r="N99" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O99" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P99" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q99" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R99" s="38"/>
     </row>
     <row r="100" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B100" s="25">
@@ -18832,6 +19000,23 @@
       <c r="F100" s="81"/>
       <c r="G100" s="87"/>
       <c r="H100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="37">
+        <v>396</v>
+      </c>
+      <c r="N100" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O100" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P100" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R100" s="38"/>
     </row>
     <row r="101" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B101" s="25">
@@ -18849,8 +19034,25 @@
       <c r="F101" s="81"/>
       <c r="G101" s="87"/>
       <c r="H101" s="49"/>
-    </row>
-    <row r="102" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="L101" s="49"/>
+      <c r="M101" s="37">
+        <v>396</v>
+      </c>
+      <c r="N101" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O101" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P101" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R101" s="38"/>
+    </row>
+    <row r="102" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="25">
         <v>94</v>
       </c>
@@ -18866,6 +19068,23 @@
       <c r="F102" s="81"/>
       <c r="G102" s="87"/>
       <c r="H102" s="49"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="35">
+        <v>396</v>
+      </c>
+      <c r="N102" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="O102" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P102" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q102" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R102" s="39"/>
     </row>
     <row r="103" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="25">

--- a/AAATR/Mapeos_CON_AAATR_V2.xlsx
+++ b/AAATR/Mapeos_CON_AAATR_V2.xlsx
@@ -5278,7 +5278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15553,8 +15553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="K59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15574,7 +15574,7 @@
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>

--- a/AAATR/Mapeos_CON_AAATR_V2.xlsx
+++ b/AAATR/Mapeos_CON_AAATR_V2.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="985">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3512,6 +3512,9 @@
   </si>
   <si>
     <t>NUMERIC(8,4)</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -5278,7 +5281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5288,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R220"/>
   <sheetViews>
-    <sheetView topLeftCell="K53" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68:R71"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9875,7 +9878,9 @@
         <v>1</v>
       </c>
       <c r="F163" s="90"/>
-      <c r="G163" s="98"/>
+      <c r="G163" s="98" t="s">
+        <v>984</v>
+      </c>
       <c r="H163" s="49"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.2">
@@ -9892,7 +9897,9 @@
         <v>7</v>
       </c>
       <c r="F164" s="90"/>
-      <c r="G164" s="98"/>
+      <c r="G164" s="98" t="s">
+        <v>984</v>
+      </c>
       <c r="H164" s="49"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.2">
@@ -9909,7 +9916,9 @@
         <v>3</v>
       </c>
       <c r="F165" s="90"/>
-      <c r="G165" s="98"/>
+      <c r="G165" s="98" t="s">
+        <v>984</v>
+      </c>
       <c r="H165" s="49"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.2">
@@ -9943,7 +9952,9 @@
         <v>3</v>
       </c>
       <c r="F167" s="90"/>
-      <c r="G167" s="98"/>
+      <c r="G167" s="98" t="s">
+        <v>984</v>
+      </c>
       <c r="H167" s="49"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.2">
@@ -10868,8 +10879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R168"/>
   <sheetViews>
-    <sheetView topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="O73" sqref="O9:O73"/>
+    <sheetView topLeftCell="K85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11583,7 +11594,9 @@
         <v>3</v>
       </c>
       <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
+      <c r="G21" s="91" t="s">
+        <v>984</v>
+      </c>
       <c r="H21" s="100"/>
       <c r="I21" s="37">
         <v>173</v>
@@ -11669,7 +11682,9 @@
         <v>3</v>
       </c>
       <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="G23" s="91" t="s">
+        <v>984</v>
+      </c>
       <c r="H23" s="100"/>
       <c r="I23" s="37">
         <v>175</v>
@@ -11755,7 +11770,9 @@
         <v>1</v>
       </c>
       <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
+      <c r="G25" s="91" t="s">
+        <v>984</v>
+      </c>
       <c r="H25" s="100"/>
       <c r="I25" s="35">
         <v>177</v>
@@ -11832,7 +11849,9 @@
         <v>6</v>
       </c>
       <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
+      <c r="G27" s="91" t="s">
+        <v>984</v>
+      </c>
       <c r="H27" s="55"/>
       <c r="L27" s="49"/>
       <c r="M27" s="47">
@@ -15553,8 +15572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20562,7 +20581,9 @@
         <v>3</v>
       </c>
       <c r="F189" s="81"/>
-      <c r="G189" s="87"/>
+      <c r="G189" s="87" t="s">
+        <v>984</v>
+      </c>
       <c r="H189" s="49"/>
     </row>
     <row r="190" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -20579,7 +20600,9 @@
         <v>3</v>
       </c>
       <c r="F190" s="81"/>
-      <c r="G190" s="87"/>
+      <c r="G190" s="87" t="s">
+        <v>984</v>
+      </c>
       <c r="H190" s="49"/>
     </row>
     <row r="191" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -20596,7 +20619,9 @@
         <v>5</v>
       </c>
       <c r="F191" s="81"/>
-      <c r="G191" s="87"/>
+      <c r="G191" s="87" t="s">
+        <v>984</v>
+      </c>
       <c r="H191" s="49"/>
     </row>
     <row r="192" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -20613,7 +20638,9 @@
         <v>1</v>
       </c>
       <c r="F192" s="81"/>
-      <c r="G192" s="87"/>
+      <c r="G192" s="87" t="s">
+        <v>984</v>
+      </c>
       <c r="H192" s="49"/>
     </row>
     <row r="193" spans="2:8" ht="15" x14ac:dyDescent="0.25">

--- a/AAATR/Mapeos_CON_AAATR_V2.xlsx
+++ b/AAATR/Mapeos_CON_AAATR_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="435" windowWidth="9225" windowHeight="4590" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="AHMAH" sheetId="10" r:id="rId1"/>
@@ -5281,7 +5281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5291,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R220"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7084,7 +7084,7 @@
       <c r="H51" s="49"/>
       <c r="L51" s="49"/>
       <c r="M51" s="47">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N51" s="34" t="s">
         <v>118</v>
@@ -15572,7 +15572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
